--- a/src/test/java/com/mi_girl/excel/mytest.xlsx
+++ b/src/test/java/com/mi_girl/excel/mytest.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="27735" windowHeight="11250"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="21675" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>编号</t>
   </si>
@@ -80,6 +81,45 @@
   </si>
   <si>
     <t>一年9班</t>
+  </si>
+  <si>
+    <t>开班时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-09-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001-09-02</t>
+  </si>
+  <si>
+    <t>2001-09-03</t>
+  </si>
+  <si>
+    <t>2001-09-04</t>
+  </si>
+  <si>
+    <t>2001-09-05</t>
+  </si>
+  <si>
+    <t>2001-09-06</t>
+  </si>
+  <si>
+    <t>2001-09-07</t>
+  </si>
+  <si>
+    <t>2001-09-08</t>
+  </si>
+  <si>
+    <t>2001-09-09</t>
+  </si>
+  <si>
+    <t>2001-09-10</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -124,8 +164,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,100 +472,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
